--- a/Comps_project/TestCase.xlsx
+++ b/Comps_project/TestCase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sweta.kumari\git\Compsbuilder\Comps_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajeev.singh2\git\Compsbuilder\Comps_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>TestCase</t>
   </si>
@@ -83,22 +83,16 @@
     <t xml:space="preserve">Manage Comps&gt;Open Upload Comps </t>
   </si>
   <si>
-    <t>ManageComps</t>
-  </si>
-  <si>
-    <t>UploadcompsTab</t>
-  </si>
-  <si>
-    <t>PARTIALLINK</t>
-  </si>
-  <si>
-    <t>SelectFile</t>
-  </si>
-  <si>
-    <t>C:\Users\sweta.kumari\git\Compsbuilder\Comps_project\TestCase..xlsx</t>
-  </si>
-  <si>
-    <t>Upload</t>
+    <t>menu_TradingComps</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>submenu_SelectCompanyProfile</t>
+  </si>
+  <si>
+    <t>WAIT</t>
   </si>
 </sst>
 </file>
@@ -464,16 +458,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -635,13 +630,11 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -649,36 +642,25 @@
         <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="E15" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Comps_project/TestCase.xlsx
+++ b/Comps_project/TestCase.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="Comps" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
   <si>
     <t>TestCase</t>
   </si>
@@ -93,6 +93,30 @@
   </si>
   <si>
     <t>WAIT</t>
+  </si>
+  <si>
+    <t>txt_companysearch</t>
+  </si>
+  <si>
+    <t>rad_companyticker</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>drp_sector</t>
+  </si>
+  <si>
+    <t>drp_subsector</t>
+  </si>
+  <si>
+    <t>drp_portfolio</t>
+  </si>
+  <si>
+    <t>ROTBOTwithENTER</t>
+  </si>
+  <si>
+    <t>ROBOTwithKEYDOWN</t>
   </si>
 </sst>
 </file>
@@ -458,16 +482,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="34.140625" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
@@ -634,7 +656,9 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -661,6 +685,252 @@
         <v>20</v>
       </c>
       <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -668,5 +938,6 @@
     <hyperlink ref="E10" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>